--- a/Documents/SWP391-AppDevProject_Backlog Template.xlsx
+++ b/Documents/SWP391-AppDevProject_Backlog Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT\Summer_2023\SWP391\Guides_Student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A7DC56-48FF-4A42-9A66-831A7C351D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C63A533-6B45-4792-B39E-C8F0A642ABE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -58,18 +58,12 @@
     <t>Login</t>
   </si>
   <si>
-    <t>Login By Google</t>
-  </si>
-  <si>
     <t>Update Information</t>
   </si>
   <si>
     <t>Update Avatar</t>
   </si>
   <si>
-    <t>Edit profile</t>
-  </si>
-  <si>
     <t>Update Data</t>
   </si>
   <si>
@@ -88,15 +82,9 @@
     <t>Delete Schedule</t>
   </si>
   <si>
-    <t>Filter Schedule</t>
-  </si>
-  <si>
     <t>Cancel Booking Class</t>
   </si>
   <si>
-    <t>Waitlist Status</t>
-  </si>
-  <si>
     <t>Receive Notifications</t>
   </si>
   <si>
@@ -106,27 +94,15 @@
     <t>Confirm To Delete</t>
   </si>
   <si>
-    <t>Delete Class</t>
-  </si>
-  <si>
-    <t>Approves List Member</t>
-  </si>
-  <si>
     <t>Update Member Detail</t>
   </si>
   <si>
-    <t>Register Class</t>
-  </si>
-  <si>
     <t>Class Registering</t>
   </si>
   <si>
     <t>Preview Registed Class</t>
   </si>
   <si>
-    <t>Search Class</t>
-  </si>
-  <si>
     <t>Search Class By Name Or Instructor</t>
   </si>
   <si>
@@ -151,18 +127,9 @@
     <t>Search Member by Name</t>
   </si>
   <si>
-    <t>Promote, Demote Membership</t>
-  </si>
-  <si>
     <t>Cancel Membership</t>
   </si>
   <si>
-    <t>Class Booking Cancellation</t>
-  </si>
-  <si>
-    <t>Membership Cancellation</t>
-  </si>
-  <si>
     <t>Confirm Upload Content</t>
   </si>
   <si>
@@ -187,9 +154,6 @@
     <t>Preview Bill</t>
   </si>
   <si>
-    <t>Class Size Limit</t>
-  </si>
-  <si>
     <t>Update Class Size</t>
   </si>
   <si>
@@ -245,6 +209,63 @@
   </si>
   <si>
     <t>Confirm Demote Update</t>
+  </si>
+  <si>
+    <t>Membership Management</t>
+  </si>
+  <si>
+    <t>Login By Google Account</t>
+  </si>
+  <si>
+    <t>Login By Account</t>
+  </si>
+  <si>
+    <t>Class Management</t>
+  </si>
+  <si>
+    <t>Class Booking Management</t>
+  </si>
+  <si>
+    <t>Waitlist Status In Class</t>
+  </si>
+  <si>
+    <t>User DashBoard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm Schedule </t>
+  </si>
+  <si>
+    <t>View Statistic Data</t>
+  </si>
+  <si>
+    <t>Reset Password</t>
+  </si>
+  <si>
+    <t>View Information</t>
+  </si>
+  <si>
+    <t>Booking a class</t>
+  </si>
+  <si>
+    <t>Confirm Cancel Booking Class</t>
+  </si>
+  <si>
+    <t>Register to be a Staff</t>
+  </si>
+  <si>
+    <t>SE162113</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồ Thanh Tài</t>
+  </si>
+  <si>
+    <t>Staff DashBorad</t>
+  </si>
+  <si>
+    <t>Update Data Class, Content</t>
+  </si>
+  <si>
+    <t>Search Bill</t>
   </si>
 </sst>
 </file>
@@ -255,7 +276,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,17 +334,23 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="13"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -352,7 +379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -435,13 +462,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -471,21 +511,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -885,10 +929,10 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:B44"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -958,16 +1002,16 @@
       <c r="G8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>9</v>
@@ -977,89 +1021,95 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="J9" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
-        <v>11</v>
+      <c r="J9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="J10" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>12</v>
+      <c r="J10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="J11" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>14</v>
+      <c r="J11" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="J12" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J12" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
+      <c r="J13" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>17</v>
+      <c r="A14" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1068,11 +1118,11 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>19</v>
+      <c r="A15" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1081,11 +1131,11 @@
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>18</v>
+      <c r="A16" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1094,11 +1144,11 @@
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>34</v>
+      <c r="A17" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1107,11 +1157,11 @@
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>30</v>
+      <c r="A18" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1120,11 +1170,11 @@
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>31</v>
+      <c r="A19" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1134,10 +1184,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1146,11 +1196,11 @@
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>25</v>
+      <c r="A21" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1159,11 +1209,11 @@
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>56</v>
+      <c r="A22" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1172,11 +1222,11 @@
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>21</v>
+      <c r="A23" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1185,11 +1235,11 @@
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>22</v>
+      <c r="A24" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1199,10 +1249,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1212,10 +1262,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1225,10 +1275,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1238,10 +1288,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1251,10 +1301,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1264,10 +1314,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1277,10 +1327,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -1290,10 +1340,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1303,10 +1353,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1316,10 +1366,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1329,10 +1379,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -1342,10 +1392,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1355,10 +1405,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -1368,10 +1418,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -1381,10 +1431,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -1394,10 +1444,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -1407,10 +1457,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -1420,10 +1470,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -1433,10 +1483,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -1446,84 +1496,240 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="20"/>
+        <v>61</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="13"/>
+      <c r="A45" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="13"/>
+      <c r="A46" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="13"/>
+      <c r="A47" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="13"/>
+      <c r="A48" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="13"/>
+      <c r="A49" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="13"/>
+      <c r="A50" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
-      <c r="B51" s="14"/>
+      <c r="A51" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="16"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="13"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="13"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="12"/>
+      <c r="B63" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D44:D50" xr:uid="{F07339E9-D44D-8E47-91D9-ADD73292BB26}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56:D62" xr:uid="{F07339E9-D44D-8E47-91D9-ADD73292BB26}">
       <formula1>"Iteration 1, Iteration 2, Iteration 3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G44:G50" xr:uid="{DD16DB9A-416B-F24E-A930-C955FCC74FAE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G56:G62" xr:uid="{DD16DB9A-416B-F24E-A930-C955FCC74FAE}">
       <formula1>"Iteration 1, Iteration 2, Iteration 3, Final"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44:C50" xr:uid="{D8E3F485-0609-C341-A723-993F74FF62FF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C56:C62" xr:uid="{D8E3F485-0609-C341-A723-993F74FF62FF}">
       <formula1>"Simple, Medium, Complex"</formula1>
     </dataValidation>
   </dataValidations>
